--- a/离散度.xlsx
+++ b/离散度.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:D1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="952">
       <c r="A952" s="1" t="n">
-        <v>1</v>
+        <v>950</v>
       </c>
       <c r="B952" t="n">
         <v>20240103</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="953">
       <c r="A953" s="1" t="n">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="B953" t="n">
         <v>20240104</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="954">
       <c r="A954" s="1" t="n">
-        <v>3</v>
+        <v>952</v>
       </c>
       <c r="B954" t="n">
         <v>20240105</v>
@@ -13789,12 +13789,12 @@
         <v>6.728367694729855</v>
       </c>
       <c r="D954" t="n">
-        <v>9.828980382630375</v>
+        <v>9.828980382630377</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1" t="n">
-        <v>4</v>
+        <v>953</v>
       </c>
       <c r="B955" t="n">
         <v>20240108</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="956">
       <c r="A956" s="1" t="n">
-        <v>5</v>
+        <v>954</v>
       </c>
       <c r="B956" t="n">
         <v>20240109</v>
@@ -13822,7 +13822,7 @@
     </row>
     <row r="957">
       <c r="A957" s="1" t="n">
-        <v>6</v>
+        <v>955</v>
       </c>
       <c r="B957" t="n">
         <v>20240110</v>
@@ -13836,7 +13836,7 @@
     </row>
     <row r="958">
       <c r="A958" s="1" t="n">
-        <v>7</v>
+        <v>956</v>
       </c>
       <c r="B958" t="n">
         <v>20240111</v>
@@ -13850,7 +13850,7 @@
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
-        <v>8</v>
+        <v>957</v>
       </c>
       <c r="B959" t="n">
         <v>20240112</v>
@@ -13859,12 +13859,12 @@
         <v>7.02306222522706</v>
       </c>
       <c r="D959" t="n">
-        <v>9.232466622105479</v>
+        <v>9.232466622105481</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="1" t="n">
-        <v>9</v>
+        <v>958</v>
       </c>
       <c r="B960" t="n">
         <v>20240115</v>
@@ -13873,12 +13873,12 @@
         <v>5.339276009119953</v>
       </c>
       <c r="D960" t="n">
-        <v>6.151457081567798</v>
+        <v>6.151457081567799</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="1" t="n">
-        <v>10</v>
+        <v>959</v>
       </c>
       <c r="B961" t="n">
         <v>20240116</v>
@@ -13892,7 +13892,7 @@
     </row>
     <row r="962">
       <c r="A962" s="1" t="n">
-        <v>11</v>
+        <v>960</v>
       </c>
       <c r="B962" t="n">
         <v>20240117</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="963">
       <c r="A963" s="1" t="n">
-        <v>12</v>
+        <v>961</v>
       </c>
       <c r="B963" t="n">
         <v>20240118</v>
@@ -13920,7 +13920,7 @@
     </row>
     <row r="964">
       <c r="A964" s="1" t="n">
-        <v>13</v>
+        <v>962</v>
       </c>
       <c r="B964" t="n">
         <v>20240119</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="965">
       <c r="A965" s="1" t="n">
-        <v>14</v>
+        <v>963</v>
       </c>
       <c r="B965" t="n">
         <v>20240122</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="966">
       <c r="A966" s="1" t="n">
-        <v>15</v>
+        <v>964</v>
       </c>
       <c r="B966" t="n">
         <v>20240123</v>
@@ -13962,7 +13962,7 @@
     </row>
     <row r="967">
       <c r="A967" s="1" t="n">
-        <v>16</v>
+        <v>965</v>
       </c>
       <c r="B967" t="n">
         <v>20240124</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="968">
       <c r="A968" s="1" t="n">
-        <v>17</v>
+        <v>966</v>
       </c>
       <c r="B968" t="n">
         <v>20240125</v>
@@ -13990,7 +13990,7 @@
     </row>
     <row r="969">
       <c r="A969" s="1" t="n">
-        <v>18</v>
+        <v>967</v>
       </c>
       <c r="B969" t="n">
         <v>20240126</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="970">
       <c r="A970" s="1" t="n">
-        <v>19</v>
+        <v>968</v>
       </c>
       <c r="B970" t="n">
         <v>20240129</v>
@@ -14018,7 +14018,7 @@
     </row>
     <row r="971">
       <c r="A971" s="1" t="n">
-        <v>20</v>
+        <v>969</v>
       </c>
       <c r="B971" t="n">
         <v>20240130</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="972">
       <c r="A972" s="1" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="B972" t="n">
         <v>20240131</v>
@@ -14046,7 +14046,7 @@
     </row>
     <row r="973">
       <c r="A973" s="1" t="n">
-        <v>22</v>
+        <v>971</v>
       </c>
       <c r="B973" t="n">
         <v>20240201</v>
@@ -14060,7 +14060,7 @@
     </row>
     <row r="974">
       <c r="A974" s="1" t="n">
-        <v>23</v>
+        <v>972</v>
       </c>
       <c r="B974" t="n">
         <v>20240202</v>
@@ -14074,7 +14074,7 @@
     </row>
     <row r="975">
       <c r="A975" s="1" t="n">
-        <v>24</v>
+        <v>973</v>
       </c>
       <c r="B975" t="n">
         <v>20240205</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="976">
       <c r="A976" s="1" t="n">
-        <v>25</v>
+        <v>974</v>
       </c>
       <c r="B976" t="n">
         <v>20240206</v>
@@ -14102,7 +14102,7 @@
     </row>
     <row r="977">
       <c r="A977" s="1" t="n">
-        <v>26</v>
+        <v>975</v>
       </c>
       <c r="B977" t="n">
         <v>20240207</v>
@@ -14116,7 +14116,7 @@
     </row>
     <row r="978">
       <c r="A978" s="1" t="n">
-        <v>27</v>
+        <v>976</v>
       </c>
       <c r="B978" t="n">
         <v>20240208</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="979">
       <c r="A979" s="1" t="n">
-        <v>28</v>
+        <v>977</v>
       </c>
       <c r="B979" t="n">
         <v>20240219</v>
@@ -14139,12 +14139,12 @@
         <v>6.394429738514713</v>
       </c>
       <c r="D979" t="n">
-        <v>7.868594363977929</v>
+        <v>7.868594363977928</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="1" t="n">
-        <v>29</v>
+        <v>978</v>
       </c>
       <c r="B980" t="n">
         <v>20240220</v>
@@ -14158,7 +14158,7 @@
     </row>
     <row r="981">
       <c r="A981" s="1" t="n">
-        <v>30</v>
+        <v>979</v>
       </c>
       <c r="B981" t="n">
         <v>20240221</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="982">
       <c r="A982" s="1" t="n">
-        <v>31</v>
+        <v>980</v>
       </c>
       <c r="B982" t="n">
         <v>20240222</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="983">
       <c r="A983" s="1" t="n">
-        <v>32</v>
+        <v>981</v>
       </c>
       <c r="B983" t="n">
         <v>20240223</v>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="984">
       <c r="A984" s="1" t="n">
-        <v>33</v>
+        <v>982</v>
       </c>
       <c r="B984" t="n">
         <v>20240226</v>
@@ -14214,7 +14214,7 @@
     </row>
     <row r="985">
       <c r="A985" s="1" t="n">
-        <v>34</v>
+        <v>983</v>
       </c>
       <c r="B985" t="n">
         <v>20240227</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="986">
       <c r="A986" s="1" t="n">
-        <v>35</v>
+        <v>984</v>
       </c>
       <c r="B986" t="n">
         <v>20240228</v>
@@ -14242,7 +14242,7 @@
     </row>
     <row r="987">
       <c r="A987" s="1" t="n">
-        <v>36</v>
+        <v>985</v>
       </c>
       <c r="B987" t="n">
         <v>20240229</v>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="988">
       <c r="A988" s="1" t="n">
-        <v>37</v>
+        <v>986</v>
       </c>
       <c r="B988" t="n">
         <v>20240301</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="989">
       <c r="A989" s="1" t="n">
-        <v>38</v>
+        <v>987</v>
       </c>
       <c r="B989" t="n">
         <v>20240304</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="990">
       <c r="A990" s="1" t="n">
-        <v>39</v>
+        <v>988</v>
       </c>
       <c r="B990" t="n">
         <v>20240305</v>
@@ -14298,7 +14298,7 @@
     </row>
     <row r="991">
       <c r="A991" s="1" t="n">
-        <v>40</v>
+        <v>989</v>
       </c>
       <c r="B991" t="n">
         <v>20240306</v>
@@ -14307,12 +14307,12 @@
         <v>5.350272743527474</v>
       </c>
       <c r="D991" t="n">
-        <v>9.112997217695199</v>
+        <v>9.112997217695201</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="1" t="n">
-        <v>41</v>
+        <v>990</v>
       </c>
       <c r="B992" t="n">
         <v>20240307</v>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="993">
       <c r="A993" s="1" t="n">
-        <v>42</v>
+        <v>991</v>
       </c>
       <c r="B993" t="n">
         <v>20240308</v>
@@ -14335,12 +14335,12 @@
         <v>6.462424766991896</v>
       </c>
       <c r="D993" t="n">
-        <v>7.811708996481745</v>
+        <v>7.811708996481744</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="1" t="n">
-        <v>43</v>
+        <v>992</v>
       </c>
       <c r="B994" t="n">
         <v>20240311</v>
@@ -14354,7 +14354,7 @@
     </row>
     <row r="995">
       <c r="A995" s="1" t="n">
-        <v>44</v>
+        <v>993</v>
       </c>
       <c r="B995" t="n">
         <v>20240312</v>
@@ -14368,7 +14368,7 @@
     </row>
     <row r="996">
       <c r="A996" s="1" t="n">
-        <v>45</v>
+        <v>994</v>
       </c>
       <c r="B996" t="n">
         <v>20240313</v>
@@ -14382,7 +14382,7 @@
     </row>
     <row r="997">
       <c r="A997" s="1" t="n">
-        <v>46</v>
+        <v>995</v>
       </c>
       <c r="B997" t="n">
         <v>20240314</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="998">
       <c r="A998" s="1" t="n">
-        <v>47</v>
+        <v>996</v>
       </c>
       <c r="B998" t="n">
         <v>20240315</v>
@@ -14410,7 +14410,7 @@
     </row>
     <row r="999">
       <c r="A999" s="1" t="n">
-        <v>48</v>
+        <v>997</v>
       </c>
       <c r="B999" t="n">
         <v>20240318</v>
@@ -14419,12 +14419,12 @@
         <v>5.95606363453765</v>
       </c>
       <c r="D999" t="n">
-        <v>7.331526464346291</v>
+        <v>7.33152646434629</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="1" t="n">
-        <v>49</v>
+        <v>998</v>
       </c>
       <c r="B1000" t="n">
         <v>20240319</v>
@@ -14438,7 +14438,7 @@
     </row>
     <row r="1001">
       <c r="A1001" s="1" t="n">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="B1001" t="n">
         <v>20240320</v>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="1" t="n">
-        <v>51</v>
+        <v>1000</v>
       </c>
       <c r="B1002" t="n">
         <v>20240321</v>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="1003">
       <c r="A1003" s="1" t="n">
-        <v>52</v>
+        <v>1001</v>
       </c>
       <c r="B1003" t="n">
         <v>20240322</v>
@@ -14480,7 +14480,7 @@
     </row>
     <row r="1004">
       <c r="A1004" s="1" t="n">
-        <v>53</v>
+        <v>1002</v>
       </c>
       <c r="B1004" t="n">
         <v>20240325</v>
@@ -14490,6 +14490,34 @@
       </c>
       <c r="D1004" t="n">
         <v>10.77804092799191</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>20240327</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>6.568416676208273</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>7.75556842219015</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>20240328</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>6.38519002964143</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>8.67673251147172</v>
       </c>
     </row>
   </sheetData>
